--- a/Enviar.xlsx
+++ b/Enviar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walissonsousa\Documents\GitHub\BotWhatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BotWhatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB72079-DF6E-4C3C-87F3-DFB745FEE152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906F8B7-E7AF-4652-B009-94DC16A03E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57810" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{E70C87D2-26C7-43B9-8FFE-68C67F475534}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E70C87D2-26C7-43B9-8FFE-68C67F475534}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Pessoa</t>
   </si>
@@ -45,16 +45,10 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>olá</t>
+    <t>Jeff</t>
   </si>
   <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>luca</t>
-  </si>
-  <si>
-    <t>elizangela</t>
+    <t>Bom dia!</t>
   </si>
 </sst>
 </file>
@@ -430,17 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900CBCC7-9F79-43AC-9D14-52FFE89F8541}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,57 +448,296 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>5561996190507</v>
+        <v>556198528572</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5561985019389</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>5561983439530</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
